--- a/data/trans_bre/P15B_tráfico-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P15B_tráfico-Habitat-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.01191842079229026</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.8298198126389658</v>
+        <v>0.829819812638966</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-39.02191642500935</v>
+        <v>-35.13774340822455</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-22.13144388075089</v>
+        <v>-22.06742234791163</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.67312561419733</v>
+        <v>-15.92041166241703</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.890217687977524</v>
+        <v>-3.868965190838226</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.888468227837782</v>
+        <v>-0.8640526395388816</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.8213096884247334</v>
+        <v>-0.8641872222222293</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5920199444484778</v>
+        <v>-0.5704432032004489</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4253030076022947</v>
+        <v>-0.3854225767122736</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.59491781999421</v>
+        <v>17.29408246110798</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.354360627971776</v>
+        <v>4.928981370693307</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.38029482733753</v>
+        <v>15.25787868792572</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.95052661674659</v>
+        <v>21.54794121964093</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.123109840051087</v>
+        <v>1.271777966614745</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6066607076363087</v>
+        <v>0.4364948270450037</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.657205801564126</v>
+        <v>1.627619932202504</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4.991049689544839</v>
+        <v>5.772728879748893</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-35.72671138524623</v>
+        <v>-34.54951688390172</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-19.79876541447866</v>
+        <v>-19.62671925585338</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-19.69131741160374</v>
+        <v>-17.42101020208927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-19.79768103470379</v>
+        <v>-20.9227235915456</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7734108153311192</v>
+        <v>-0.7705668657666852</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6175767217200292</v>
+        <v>-0.6248039068661853</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7071910898234471</v>
+        <v>-0.6530763699283714</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5539691486502329</v>
+        <v>-0.5762561006383838</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.313004590285399</v>
+        <v>9.974479663115783</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.57955903423594</v>
+        <v>6.259681930376389</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.64133551476064</v>
+        <v>13.28313898713943</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.61558559601819</v>
+        <v>18.36130140216855</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4458794490147942</v>
+        <v>0.4852323630625567</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3553004241168625</v>
+        <v>0.3925442278089885</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.116070010644878</v>
+        <v>1.065062487657091</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.334447602445788</v>
+        <v>1.03092007216006</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.476859796121418</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-13.59673543706991</v>
+        <v>-13.59673543706992</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3793645624307883</v>
@@ -849,7 +849,7 @@
         <v>-0.1744045696173228</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.5382597826666764</v>
+        <v>-0.5382597826666765</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-42.25590534908881</v>
+        <v>-39.68779360257584</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-20.44519241330411</v>
+        <v>-23.40664536007287</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-20.19622282255406</v>
+        <v>-21.45154667294861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-35.76063722949289</v>
+        <v>-33.34794222960698</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.8418428686350574</v>
+        <v>-0.8303074191983136</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5403272053189431</v>
+        <v>-0.5936241605013565</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7190247176152591</v>
+        <v>-0.7769913460084458</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.8854386863228414</v>
+        <v>-0.8609296527669767</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.21958492667528</v>
+        <v>12.45094937616375</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.52376953629697</v>
+        <v>10.09034087203031</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.5586009334116</v>
+        <v>15.11845756914646</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.806770176057899</v>
+        <v>4.929301704315145</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7017359265601346</v>
+        <v>0.7663179628547396</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5526975434152112</v>
+        <v>0.5058941092745486</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.771575153670469</v>
+        <v>1.391552144313186</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5708199931220731</v>
+        <v>1.07710319102333</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-10.26810512860553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-12.01000743186605</v>
+        <v>-12.01000743186606</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.225001670745988</v>
@@ -949,7 +949,7 @@
         <v>-0.406890530324801</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3034996032190335</v>
+        <v>-0.3034996032190339</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-27.95131544299289</v>
+        <v>-27.8717271289111</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-21.37939427842932</v>
+        <v>-20.32442689530277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-24.37932780097284</v>
+        <v>-26.49771065717863</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-27.05215380833495</v>
+        <v>-26.57066597913227</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7620090896690186</v>
+        <v>-0.7701034573305975</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6048443340035857</v>
+        <v>-0.5988824766585839</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7507030697237016</v>
+        <v>-0.7792889482129176</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5513844875140423</v>
+        <v>-0.5450456719487548</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.74391480715389</v>
+        <v>16.95466966643227</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.816664437600858</v>
+        <v>7.277448102366703</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.505387214604936</v>
+        <v>4.713534799130007</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.538475028552941</v>
+        <v>3.92789893594983</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.099958041117252</v>
+        <v>1.159405034653425</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4131967717210193</v>
+        <v>0.3601669167662457</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4567607181906893</v>
+        <v>0.3508904189488908</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.107142694694423</v>
+        <v>0.1481445992066031</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-22.95680562768316</v>
+        <v>-22.18342706139991</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.35222494218207</v>
+        <v>-14.42642469803253</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.43166097155703</v>
+        <v>-12.49106118649602</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-13.56170248354581</v>
+        <v>-14.16036592101707</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6222400561055136</v>
+        <v>-0.5904534079824818</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4841784796467943</v>
+        <v>-0.5066549624547219</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.482512685942515</v>
+        <v>-0.4989027490920829</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4300610421398882</v>
+        <v>-0.4378441202752041</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4838002325402367</v>
+        <v>1.056847754322436</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9079403882713897</v>
+        <v>0.1110265370138007</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.076460578741326</v>
+        <v>3.962856373781439</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.298396028797891</v>
+        <v>4.122197207348618</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.03639728153271475</v>
+        <v>0.04852899155352208</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04595900085238792</v>
+        <v>0.003423781439988957</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2561440459144601</v>
+        <v>0.2142698434787036</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1516505562568512</v>
+        <v>0.2005914184849099</v>
       </c>
     </row>
     <row r="19">
